--- a/Testing/Times/times_server.xlsx
+++ b/Testing/Times/times_server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadim\Desktop\Bach\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadim\Desktop\Bach\Testing\Times\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B4C023-0116-4271-8D2E-943E4A3C904B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF750FC-D37C-4847-9CCC-3CBC9710980B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -540,14 +540,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="B526" sqref="B526"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -575,7 +576,7 @@
         <v>37</v>
       </c>
       <c r="F2">
-        <f>MAX(B2:B1001)</f>
+        <f>MAX(B2)</f>
         <v>0</v>
       </c>
     </row>
